--- a/medicine/Enfance/Olivier_Mau/Olivier_Mau.xlsx
+++ b/medicine/Enfance/Olivier_Mau/Olivier_Mau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olivier Mau, né en 1967 à Paris en France, est un écrivain français, auteur de roman policier et de littérature d'enfance et de jeunesse et scénariste de bande dessinée, directeur de collection chez Parigramme.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études artistiques à l'école nationale supérieure des beaux-arts puis à l'école supérieure des arts et techniques. À 22 ans, il s'installe à Londres comme dessinateur publicitaire. Il reprend ses études et obtient un Higher National Diploma (en) à Ealing Polytechnic. 
 De retour en France, il anime des ateliers d'écriture et se consacre à ses romans. Il est l'auteur de huit romans policiers et d'ouvrages pour la jeunesse. Il est également scénariste de bandes dessinées.
@@ -545,17 +559,59 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Un bon petit gars, Balle d'argent, (1995)  (ISBN 2-9508429-2-5), réédition Fleuve noir no 54 (1998)  (ISBN 2-265-06607-9), réédition Pocket no  (2001)  (ISBN 2-266-11542-1)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Un bon petit gars, Balle d'argent, (1995)  (ISBN 2-9508429-2-5), réédition Fleuve noir no 54 (1998)  (ISBN 2-265-06607-9), réédition Pocket no  (2001)  (ISBN 2-266-11542-1)
 Belle-mère en l'île, Éditions Baleine, collection Le Poulpe 2000  (ISBN 2-84219-286-9)
 Raides Dingues, Fleuve Noir, collection Noirs (2001)  (ISBN 2-265-07058-0), réédition Pocket no 11773 (2003)  (ISBN 2-84219-286-9)
 Myrtille à la plage, Pocket no 11500 (2003)  (ISBN 2-266-11853-6)
 Myrtille apprend à nager, Pocket no 11501 (2003)  (ISBN 2-266-11852-8)
 Myrtille boit la tasse, Pocket no 11502 (2003)  (ISBN 2-266-11851-X)
-Les corbeaux nettoieront, Fleuve Noir, collection Noirs (2003)  (ISBN 2-265-07449-7)
-Littérature d'enfance et de jeunesse
-Série Armand
-Armand chez les Passimpas, Syros, collection Mini Souris noire no 35 (1998)  (ISBN 2-84146-590-X), réédition Mini Syros Polar (2009)  (ISBN 978-2-7485-0820-8)
+Les corbeaux nettoieront, Fleuve Noir, collection Noirs (2003)  (ISBN 2-265-07449-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olivier_Mau</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Mau</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Armand</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Armand chez les Passimpas, Syros, collection Mini Souris noire no 35 (1998)  (ISBN 2-84146-590-X), réédition Mini Syros Polar (2009)  (ISBN 978-2-7485-0820-8)
 Armand, dur à cuire !, Syros, collection Mini Souris noire no 44 (1999)  (ISBN 2-84146-659-0), réédition Mini Syros Polar (2007)  (ISBN 978-2-7485-0550-4)
 Armand et le commissaire Magret, Syros, collection Mini Souris noire no 51 (1999)  (ISBN 2-84146-697-3), réédition Mini Syros Polar (2007)  (ISBN 978-2-7485-0551-1)
 Armand pique sa crise, Syros, collection Mini Souris noire no 56 (1999)  (ISBN 2-84146-732-5)
@@ -563,27 +619,205 @@
 Armand sous les tropiques,  Syros, collection Mini Souris noire no 65 (2000)  (ISBN 2-84146-822-4)
 Armand contre Joe Lateigne, Syros, collection Mini Souris noire no 72 (2001)  (ISBN 2-84146-981-6)
 Armand et la Grosse Dinde de Noël, Syros, collection Mini Souris noire no 73 (2001)  (ISBN 2-84146-980-8)
-Armand mon canard dur à cuire, Syros jeunesse, (2002) (réunit  Armand chez les Passimpas ; Armand dur à cuire ! ; Armand et le commissaire Magret ; Armand pique sa crise ; Armand sur canapé ; Armand sous les tropiques ; Armand contre Joe Lateigne ; Armand et la Grosse Dinde de Noël)  (ISBN 2-7485-0027-X)
-Série Tante Agathe
-Tante Agathe et les Agités du bocal, Syros, collection Tempo (2003)  (ISBN 2-7485-0047-4)
+Armand mon canard dur à cuire, Syros jeunesse, (2002) (réunit  Armand chez les Passimpas ; Armand dur à cuire ! ; Armand et le commissaire Magret ; Armand pique sa crise ; Armand sur canapé ; Armand sous les tropiques ; Armand contre Joe Lateigne ; Armand et la Grosse Dinde de Noël)  (ISBN 2-7485-0027-X)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Olivier_Mau</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Mau</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Tante Agathe</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tante Agathe et les Agités du bocal, Syros, collection Tempo (2003)  (ISBN 2-7485-0047-4)
 Tante Agathe a la forme olympique, Syros, collection Tempo (2003)  (ISBN 2-7485-0048-2)
-Tante Agathe et l'Homme papillon, Syros, collection Tempo (2003)  (ISBN 2-7485-0049-0)
-Autres ouvrages de littérature d'enfance et de jeunesse
-Mon frère est un drôle de type, Syros, collection Souris noire no 6 (1997)  (ISBN 2-84146-449-0), réédition dans la même collection (2005)  (ISBN 2-7485-0406-2)
+Tante Agathe et l'Homme papillon, Syros, collection Tempo (2003)  (ISBN 2-7485-0049-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Olivier_Mau</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Mau</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Mon frère est un drôle de type, Syros, collection Souris noire no 6 (1997)  (ISBN 2-84146-449-0), réédition dans la même collection (2005)  (ISBN 2-7485-0406-2)
 Rachid Système, Méréal, Black process. Collection Junior (1998) (coécrit avec  Les Chaps)
 Les Fusils dans l'île, éditions Albin Michel, collection Le Furet enquête no 7 (1999)  (ISBN 2-226-09151-3)
 Tonton Émile, Syros, collection Souris noire no 32 (1999)  (ISBN 2-84146-678-7), réédition dans la collection Rat noir no 5 (2002)  (ISBN 2-7485-0070-9), réédition Collection Facilire (2007)  (ISBN 978-2-84379-397-4)
 Temps de chien, Syros, collection Souris noire no 53 (2000)  (ISBN 2-84146-900-X), réédition dans la même collection (2005)  (ISBN 2-7485-0360-0)
-Peau de vache, Syros, collection Souris noire no 60 (2001)  (ISBN 2-84146-975-1)
-Nouvelles de littérature d'enfance et de jeunesse
-Albert, dans le recueil La Course de l'univers, Fleurus, collection Z'azimut no 3 (2000)  (ISBN 2-215-05136-1)
+Peau de vache, Syros, collection Souris noire no 60 (2001)  (ISBN 2-84146-975-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Olivier_Mau</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Mau</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Albert, dans le recueil La Course de l'univers, Fleurus, collection Z'azimut no 3 (2000)  (ISBN 2-215-05136-1)
 Le Disparu du Pont-Neuf, dans le recueil Le Disparu du Pont-Neuf, Fleurus, collection Z'azimut no 8 (2000)  (ISBN 2-215-05139-6)
-Le Fils de l'espion, dans le recueil Le Fils de l'espion, Fleurus, collection Z'azimut no 24 (2002)  (ISBN 2-215-05211-2)
-Recueil de nouvelles
-Dipsomanes, Méréal (1999)  (ISBN 2-84480-000-9)
-Un petit cou de trop derrière la cravate, Éditions Baleine, collection Tourisme et Polar (1998)  (ISBN 2-84219-183-8)
-Nouvelles
-Sympathy for the devil, dans la revue Polaroïdes (1997)
+Le Fils de l'espion, dans le recueil Le Fils de l'espion, Fleurus, collection Z'azimut no 24 (2002)  (ISBN 2-215-05211-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Olivier_Mau</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Mau</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dipsomanes, Méréal (1999)  (ISBN 2-84480-000-9)
+Un petit cou de trop derrière la cravate, Éditions Baleine, collection Tourisme et Polar (1998)  (ISBN 2-84219-183-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Olivier_Mau</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Mau</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sympathy for the devil, dans la revue Polaroïdes (1997)
 Un air de famille, dans le recueil Du lit au ciel, Éditions Luce Wilquin (1997)
 Nib, dans la revue Caïn, (1998)
 Champion du monde, dans la revue Ligne noire (1999)
@@ -605,48 +839,118 @@
 Week-end sauvage dans La souris déglinguée, Camion Blanc (2011)
 Trafalgar dans The Doors, Buchet Chastel (2012)
 Sur la piste inconnue dans Berurier Noir, Camion Blanc (2012)
-Junky slip dans Sandinista !, Goater Noir (2017)
-Nouvelles de littérature d'enfance et de jeunesse coécrites avec Caryl Férey signées Jacques Daniel
-Apprenti mousquetaire, dans le recueil Mousquetaire malgré lui, Fleurus, collection Z'azimut no 10 (2001)  (ISBN 2-215-05161-2)
+Junky slip dans Sandinista !, Goater Noir (2017)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Olivier_Mau</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Mau</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nouvelles de littérature d'enfance et de jeunesse coécrites avec Caryl Férey signées Jacques Daniel</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Apprenti mousquetaire, dans le recueil Mousquetaire malgré lui, Fleurus, collection Z'azimut no 10 (2001)  (ISBN 2-215-05161-2)
 Piro le fou,  dans le recueil Avis de tempête,  Fleurus, collection Z'azimut no 12 (2001)  (ISBN 2-215-05163-9)
 Le Sourire de la mort, dans le recueil Avis de tempête, Fleurus, collection Z'azimut no 12 (2001)  (ISBN 2-215-05163-9)
 Pupus, dans le recueil L'Ultime Combat, Fleurus, collection Z'azimut no 22 (2002)  (ISBN 2-215-05198-1)
 L'Ultime Combat, dans le recueil L'Ultime Combat, Fleurus, collection Z'azimut no 22 (2002)  (ISBN 2-215-05198-1)
 Le Bal des faucheurs, dans le recueil La Danse de Louisa, Fleurus, collection Z'azimut no 23 (2002)  (ISBN 2-215-05199-X)
-Cavale sous les tropiques, dans le recueil Le Fils de l'espion, Fleurus, collection Z'azimut no 24 (2002)  (ISBN 2-215-05211-2)
-Bandes dessinées
-Achevé d'imprimer, dessins de Rémy Mabesoone, Casterman (2006)  (ISBN 2-203-33100-3)
+Cavale sous les tropiques, dans le recueil Le Fils de l'espion, Fleurus, collection Z'azimut no 24 (2002)  (ISBN 2-215-05211-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Olivier_Mau</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Mau</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Achevé d'imprimer, dessins de Rémy Mabesoone, Casterman (2006)  (ISBN 2-203-33100-3)
 Au revoir Monsieur, dessins de Rémy Mabesoone, Casterman (2008)  (ISBN 978-2-203-01248-6)
 Bonne nuit les petits, dessins de Stéphane Lenglet, Casterman (2009)  (ISBN 978-2-203-02101-3)
 Tout le plaisir est pour moi, dessins de Fred Druart Glénat (2018)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Olivier_Mau</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Olivier_Mau</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Olivier_Mau</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Mau</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Directeur de collection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Collection Noir 7.5 chez Parigramme :
 Romain Slocombe : L'infante du rock, 2009, 270 p.,  (ISBN 978-2-84096-605-0)
